--- a/docs/FBL - UNCEFACT - mapping - final.xlsx
+++ b/docs/FBL - UNCEFACT - mapping - final.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aro365545656-my.sharepoint.com/personal/pourtales_fiata_com/Documents/projects/efbl-stamping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aro365545656.sharepoint.com/sites/FIATADigitalStragey/Freigegebene Dokumente/General/Digital Standard Documents Library/Bill of lading/UNCEFACT mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="8_{2DED6A79-58CD-4553-87AE-8CA2B2D09FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{568ED0AF-4D1A-6747-9F44-C8D9F8CEADFE}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="8_{2DED6A79-58CD-4553-87AE-8CA2B2D09FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A687A8D0-BB67-4BF2-B05E-C6DD2551772E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17060" xr2:uid="{D0CDC040-CA45-4BA2-A942-7BCF53A89452}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D0CDC040-CA45-4BA2-A942-7BCF53A89452}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$212</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="394">
   <si>
     <t>Business name</t>
   </si>
@@ -1230,6 +1230,50 @@
     <t>Carriers Liability limitations: -Said to contain (STC)
 -Shippers, load stow and count (SLAC)
 -Shippers load, stow, count and seal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Containers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seal number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container in which the consignement item is </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport Movement Identifier </t>
+  </si>
+  <si>
+    <t>UDT0000011
+UN01003841</t>
+  </si>
+  <si>
+    <t>The unique identifier for this logistics transport movement, such as a voyage number, flight number, or trip number.</t>
+  </si>
+  <si>
+    <t>Logistics_ Transport Movement. Identification. Identifier	Logistics_ Transport Movement/Identification. Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voyage Number </t>
+  </si>
+  <si>
+    <t>Gross Weight</t>
+  </si>
+  <si>
+    <t>Supply Chain_ Consignment. Gross Weight. Measure</t>
+  </si>
+  <si>
+    <t>A measure of the gross weight (mass) of this supply chain consignment which includes the weight of packaging but which excludes the weight of any transport equipment.</t>
+  </si>
+  <si>
+    <t>UDT0000013
+UN01004173</t>
+  </si>
+  <si>
+    <t>Total weight</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1434,6 +1478,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1631,13 +1678,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2476501</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>685800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1675,13 +1722,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>312420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2299003</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>731709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1719,13 +1766,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>94206</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>670560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2237848</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>1468594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1763,13 +1810,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>274320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1826682</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>714681</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1807,13 +1854,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>343463</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2013269</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>769620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1851,13 +1898,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>449579</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>236220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2041216</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>1289116</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1895,13 +1942,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>251460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2087580</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>693420</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1939,13 +1986,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2297123</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>662878</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1983,13 +2030,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2219043</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>647637</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2027,13 +2074,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2228533</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>708593</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2071,13 +2118,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2070465</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>685738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2115,13 +2162,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1836420</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>1156400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2159,14 +2206,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>670560</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1796240</xdr:colOff>
       <xdr:row>179</xdr:row>
-      <xdr:rowOff>3745</xdr:rowOff>
+      <xdr:rowOff>651445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2203,13 +2250,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>274320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1796235</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>756221</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2247,13 +2294,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>236220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2139035</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>670497</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2291,13 +2338,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>236220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2095497</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>739140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2335,13 +2382,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>608737</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1954299</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>672402</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2379,13 +2426,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>243840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2146703</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>201</xdr:row>
       <xdr:rowOff>695266</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2423,14 +2470,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>236220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2043807</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>608265</xdr:rowOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>697165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2473,8 +2520,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2022355</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2540</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>624840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2511,13 +2558,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2415116</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>742870</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2555,13 +2602,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2149232</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2599,13 +2646,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2312095</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>699554</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2939,24 +2986,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F6423A-E69A-4945-BB15-7F58D9FE7B04}">
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2979,7 +3026,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
@@ -2997,7 +3044,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>11</v>
       </c>
@@ -3017,7 +3064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
         <v>16</v>
       </c>
@@ -3037,7 +3084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>21</v>
       </c>
@@ -3057,7 +3104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
         <v>26</v>
       </c>
@@ -3075,7 +3122,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
@@ -3095,7 +3142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>11</v>
       </c>
@@ -3113,7 +3160,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>37</v>
       </c>
@@ -3131,7 +3178,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="24" t="s">
         <v>41</v>
       </c>
@@ -3149,7 +3196,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" s="28" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="28" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>345</v>
       </c>
@@ -3170,7 +3217,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="28" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>11</v>
       </c>
@@ -3188,7 +3235,7 @@
       </c>
       <c r="F12" s="27"/>
     </row>
-    <row r="13" spans="1:7" s="28" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>132</v>
       </c>
@@ -3206,7 +3253,7 @@
       </c>
       <c r="F13" s="27"/>
     </row>
-    <row r="14" spans="1:7" ht="72.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>46</v>
       </c>
@@ -3226,7 +3273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>51</v>
       </c>
@@ -3244,7 +3291,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>11</v>
       </c>
@@ -3262,7 +3309,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>58</v>
       </c>
@@ -3280,7 +3327,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="9" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>62</v>
       </c>
@@ -3298,562 +3345,564 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:6" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="D20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+    <row r="21" spans="1:6" ht="100.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="72.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>78</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" ht="134.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+    <row r="23" spans="1:6" s="9" customFormat="1" ht="134.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B23" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="D23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+    <row r="24" spans="1:6" ht="73.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B24" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E24" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+    <row r="25" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B25" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="12" t="s">
+      <c r="D25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B26" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E26" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="15" t="s">
+      <c r="D27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>107</v>
+      <c r="E28" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>108</v>
+    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>111</v>
+      <c r="E29" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>112</v>
+    <row r="30" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>115</v>
+      <c r="E30" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>116</v>
+    <row r="31" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>119</v>
+      <c r="E31" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
-        <v>112</v>
+    <row r="32" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B34" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B36" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C36" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="16" t="s">
+      <c r="D36" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B37" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="15" t="s">
+      <c r="D37" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B38" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E38" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B39" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="15" t="s">
+      <c r="D39" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B40" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B45" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D44" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="15" t="s">
+      <c r="D45" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B46" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="14" t="s">
+      <c r="D46" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B47" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C47" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="18" t="s">
+      <c r="D47" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B48" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="14" t="s">
+      <c r="D48" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A49" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B49" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>180</v>
@@ -3862,504 +3911,504 @@
         <v>44</v>
       </c>
       <c r="E49" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B51" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="12" t="s">
+      <c r="D51" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B52" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" s="14" t="s">
+      <c r="D52" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F52" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
+    <row r="53" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B53" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" s="12" t="s">
+      <c r="D53" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B54" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D54" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E54" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B55" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="15" t="s">
+      <c r="D55" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B56" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" s="14" t="s">
+      <c r="D56" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B57" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="15" t="s">
+      <c r="D57" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B58" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D57" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="14" t="s">
+      <c r="D58" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A59" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B59" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" s="15" t="s">
+      <c r="D59" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B60" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="14" t="s">
+      <c r="D60" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A61" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B61" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C61" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E60" s="15" t="s">
+      <c r="D61" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B62" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E61" s="14" t="s">
+      <c r="D62" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B63" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E62" s="15" t="s">
+      <c r="D63" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B64" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C64" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D63" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E63" s="16" t="s">
+      <c r="D64" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B65" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64" s="15" t="s">
+      <c r="D65" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B66" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" s="14" t="s">
+      <c r="D66" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A66" s="13" t="s">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B67" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E66" s="15" t="s">
+      <c r="D67" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A67" s="13" t="s">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B68" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D67" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E67" s="15" t="s">
+      <c r="D68" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A68" s="13" t="s">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B69" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D68" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E68" s="15" t="s">
+      <c r="D69" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A69" s="13" t="s">
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B70" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D69" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E69" s="15" t="s">
+      <c r="D70" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A71" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B71" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D70" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E70" s="15" t="s">
+      <c r="D71" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A71" s="13" t="s">
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B72" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D71" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E71" s="15" t="s">
+      <c r="D72" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A72" s="13" t="s">
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B73" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C73" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D72" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E72" s="15" t="s">
+      <c r="D73" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B74" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D73" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E73" s="14" t="s">
+      <c r="D74" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A74" s="13" t="s">
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B75" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C75" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D74" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E74" s="18" t="s">
+      <c r="D75" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="s">
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A76" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B76" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D75" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E75" s="14" t="s">
+      <c r="D76" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A77" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B77" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>180</v>
@@ -4368,504 +4417,504 @@
         <v>44</v>
       </c>
       <c r="E77" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A78" s="13" t="s">
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B79" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D78" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E78" s="12" t="s">
+      <c r="D79" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="1:6" ht="66.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:6" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B80" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D80" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E79" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A80" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A81" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="15" t="s">
+      <c r="E82" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A82" s="13" t="s">
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A83" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B83" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D82" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E82" s="15" t="s">
+      <c r="D83" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="s">
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A84" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B84" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D83" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E83" s="14" t="s">
+      <c r="D84" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F83" s="4"/>
-    </row>
-    <row r="84" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B85" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F84" s="4"/>
-    </row>
-    <row r="85" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A85" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="D85" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="14" t="s">
-        <v>111</v>
+      <c r="E85" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
-        <v>112</v>
+    <row r="86" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D86" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="15" t="s">
-        <v>115</v>
+      <c r="E86" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A87" s="11" t="s">
-        <v>116</v>
+    <row r="87" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A87" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D87" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="14" t="s">
+      <c r="E87" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A88" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F87" s="4"/>
-    </row>
-    <row r="88" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A88" s="13" t="s">
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A89" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B89" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C89" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D88" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="15" t="s">
+      <c r="D89" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F88" s="4"/>
-    </row>
-    <row r="89" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="s">
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B90" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F89" s="4"/>
-    </row>
-    <row r="90" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A90" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="D90" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="15" t="s">
+      <c r="E90" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F90" s="4"/>
-    </row>
-    <row r="91" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B92" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C92" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D91" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E91" s="16" t="s">
+      <c r="D92" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F91" s="4"/>
-    </row>
-    <row r="92" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A92" s="13" t="s">
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B93" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C93" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D92" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E92" s="15" t="s">
+      <c r="D93" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F92" s="4"/>
-    </row>
-    <row r="93" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B94" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C94" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D93" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E93" s="14" t="s">
+      <c r="D94" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F93" s="4"/>
-    </row>
-    <row r="94" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A94" s="13" t="s">
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B95" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C95" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D94" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E94" s="15" t="s">
+      <c r="D95" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F94" s="4"/>
-    </row>
-    <row r="95" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A95" s="13" t="s">
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B96" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C96" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D95" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E95" s="15" t="s">
+      <c r="D96" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F95" s="4"/>
-    </row>
-    <row r="96" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A96" s="13" t="s">
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A97" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B97" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C97" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D96" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E96" s="15" t="s">
+      <c r="D97" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E97" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="F96" s="4"/>
-    </row>
-    <row r="97" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A97" s="13" t="s">
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A98" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B98" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C98" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D97" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E97" s="15" t="s">
+      <c r="D98" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F97" s="4"/>
-    </row>
-    <row r="98" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A98" s="13" t="s">
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B99" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C99" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D98" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E98" s="15" t="s">
+      <c r="D99" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="F98" s="4"/>
-    </row>
-    <row r="99" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A99" s="13" t="s">
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B100" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C100" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D99" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E99" s="15" t="s">
+      <c r="D100" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F99" s="4"/>
-    </row>
-    <row r="100" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A100" s="13" t="s">
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B101" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C101" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D100" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E100" s="15" t="s">
+      <c r="D101" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F100" s="4"/>
-    </row>
-    <row r="101" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="s">
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B102" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="C102" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D101" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E101" s="14" t="s">
+      <c r="D102" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F101" s="4"/>
-    </row>
-    <row r="102" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A102" s="13" t="s">
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B102" s="17" t="s">
+      <c r="B103" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C103" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D102" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E102" s="18" t="s">
+      <c r="D103" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="F102" s="4"/>
-    </row>
-    <row r="103" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="s">
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A104" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B104" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C104" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D103" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E103" s="14" t="s">
+      <c r="D104" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F103" s="4"/>
-    </row>
-    <row r="104" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A104" s="13" t="s">
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A105" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B105" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F104" s="4"/>
-    </row>
-    <row r="105" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A105" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>180</v>
@@ -4874,504 +4923,504 @@
         <v>44</v>
       </c>
       <c r="E105" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F105" s="4"/>
-    </row>
-    <row r="106" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A106" s="13" t="s">
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B107" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C107" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D106" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E106" s="12" t="s">
+      <c r="D107" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="F106" s="4"/>
-    </row>
-    <row r="107" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="19" t="s">
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B108" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C108" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D107" s="13" t="s">
+      <c r="D108" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A110" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D110" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E107" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A108" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F108" s="4"/>
-    </row>
-    <row r="109" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A109" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D109" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="15" t="s">
+      <c r="E110" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F109" s="4"/>
-    </row>
-    <row r="110" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A110" s="13" t="s">
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A111" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B111" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C111" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D110" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E110" s="15" t="s">
+      <c r="D111" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F110" s="4"/>
-    </row>
-    <row r="111" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="s">
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A112" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B112" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C112" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F111" s="4"/>
-    </row>
-    <row r="112" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A112" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="D112" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E112" s="15" t="s">
-        <v>107</v>
+      <c r="E112" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A113" s="11" t="s">
-        <v>108</v>
+    <row r="113" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A113" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D113" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E113" s="14" t="s">
-        <v>111</v>
+      <c r="E113" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A114" s="13" t="s">
-        <v>112</v>
+    <row r="114" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D114" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E114" s="15" t="s">
-        <v>115</v>
+      <c r="E114" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A115" s="11" t="s">
-        <v>116</v>
+    <row r="115" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A115" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D115" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E115" s="14" t="s">
+      <c r="E115" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A116" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E116" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F115" s="4"/>
-    </row>
-    <row r="116" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A116" s="13" t="s">
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A117" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B117" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C117" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D116" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" s="15" t="s">
+      <c r="D117" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E117" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F116" s="4"/>
-    </row>
-    <row r="117" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="s">
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B118" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C118" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F117" s="4"/>
-    </row>
-    <row r="118" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A118" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="D118" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E118" s="15" t="s">
+      <c r="E118" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F118" s="4"/>
-    </row>
-    <row r="119" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B120" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C119" s="16" t="s">
+      <c r="C120" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D119" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E119" s="16" t="s">
+      <c r="D120" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E120" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F119" s="4"/>
-    </row>
-    <row r="120" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A120" s="13" t="s">
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A121" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B120" s="13" t="s">
+      <c r="B121" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="C121" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D120" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E120" s="15" t="s">
+      <c r="D121" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E121" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F120" s="4"/>
-    </row>
-    <row r="121" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A121" s="11" t="s">
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A122" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B122" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C122" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D121" s="13" t="s">
+      <c r="D122" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E121" s="14" t="s">
+      <c r="E122" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F121" s="4"/>
-    </row>
-    <row r="122" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A122" s="13" t="s">
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B123" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C122" s="12" t="s">
+      <c r="C123" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D122" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E122" s="15" t="s">
+      <c r="D123" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E123" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F122" s="4"/>
-    </row>
-    <row r="123" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A123" s="13" t="s">
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A124" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B124" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="C124" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F123" s="4"/>
-    </row>
-    <row r="124" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A124" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="D124" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D125" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D127" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A128" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F127" s="4"/>
-    </row>
-    <row r="128" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A128" s="13" t="s">
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A129" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B129" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="C129" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D128" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E128" s="15" t="s">
+      <c r="D129" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E129" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F128" s="4"/>
-    </row>
-    <row r="129" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A129" s="11" t="s">
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A130" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B130" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C130" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D129" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E129" s="14" t="s">
+      <c r="D130" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E130" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F129" s="4"/>
-    </row>
-    <row r="130" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A130" s="13" t="s">
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B131" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C131" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D130" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E130" s="18" t="s">
+      <c r="D131" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E131" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="F130" s="4"/>
-    </row>
-    <row r="131" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A131" s="11" t="s">
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A132" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B132" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="C132" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D131" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E131" s="14" t="s">
+      <c r="D132" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E132" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F131" s="4"/>
-    </row>
-    <row r="132" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A132" s="13" t="s">
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A133" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B133" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D132" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F132" s="4"/>
-    </row>
-    <row r="133" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A133" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="C133" s="13" t="s">
         <v>180</v>
@@ -5380,504 +5429,504 @@
         <v>44</v>
       </c>
       <c r="E133" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F133" s="4"/>
+    </row>
+    <row r="134" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E134" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F133" s="4"/>
-    </row>
-    <row r="134" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A134" s="13" t="s">
+      <c r="F134" s="4"/>
+    </row>
+    <row r="135" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A135" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B135" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="C135" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D134" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E134" s="12" t="s">
+      <c r="D135" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E135" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="F134" s="4"/>
-    </row>
-    <row r="135" spans="1:6" ht="66.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="11" t="s">
+      <c r="F135" s="4"/>
+    </row>
+    <row r="136" spans="1:6" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="B136" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="C136" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D135" s="13" t="s">
+      <c r="D136" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E135" s="14" t="s">
+      <c r="E136" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="F135" s="6" t="s">
+      <c r="F136" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A136" s="13" t="s">
+    <row r="137" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A137" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B137" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C136" s="13" t="s">
+      <c r="C137" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D136" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E136" s="12" t="s">
+      <c r="D137" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E137" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F136" s="4"/>
-    </row>
-    <row r="137" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A137" s="13" t="s">
+      <c r="F137" s="4"/>
+    </row>
+    <row r="138" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A138" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B138" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="C138" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D137" s="13" t="s">
+      <c r="D138" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E137" s="15" t="s">
+      <c r="E138" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F137" s="4"/>
-    </row>
-    <row r="138" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A138" s="13" t="s">
+      <c r="F138" s="4"/>
+    </row>
+    <row r="139" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A139" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B139" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="C139" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D138" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E138" s="15" t="s">
+      <c r="D139" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E139" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F138" s="4"/>
-    </row>
-    <row r="139" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A139" s="11" t="s">
+      <c r="F139" s="4"/>
+    </row>
+    <row r="140" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A140" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B140" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="C140" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D139" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E139" s="14" t="s">
+      <c r="D140" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E140" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F139" s="4"/>
-    </row>
-    <row r="140" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A140" s="13" t="s">
+      <c r="F140" s="4"/>
+    </row>
+    <row r="141" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A141" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B141" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="C141" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D140" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E140" s="15" t="s">
+      <c r="D141" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E141" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F140" s="4"/>
-    </row>
-    <row r="141" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A141" s="11" t="s">
+      <c r="F141" s="4"/>
+    </row>
+    <row r="142" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A142" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B142" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="C142" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D141" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E141" s="14" t="s">
+      <c r="D142" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E142" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F141" s="4"/>
-    </row>
-    <row r="142" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A142" s="13" t="s">
+      <c r="F142" s="4"/>
+    </row>
+    <row r="143" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A143" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B143" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C142" s="12" t="s">
+      <c r="C143" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D142" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E142" s="15" t="s">
+      <c r="D143" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E143" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F142" s="4"/>
-    </row>
-    <row r="143" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A143" s="11" t="s">
+      <c r="F143" s="4"/>
+    </row>
+    <row r="144" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A144" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B143" s="12" t="s">
+      <c r="B144" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="C144" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D143" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E143" s="14" t="s">
+      <c r="D144" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E144" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F143" s="4"/>
-    </row>
-    <row r="144" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A144" s="13" t="s">
+      <c r="F144" s="4"/>
+    </row>
+    <row r="145" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A145" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="B145" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="C145" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D144" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E144" s="15" t="s">
+      <c r="D145" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E145" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F144" s="4"/>
-    </row>
-    <row r="145" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A145" s="11" t="s">
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A146" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="B146" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="C146" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D145" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E145" s="14" t="s">
+      <c r="D146" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E146" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F145" s="4"/>
-    </row>
-    <row r="146" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A146" s="13" t="s">
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A147" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="B147" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="C147" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D146" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E146" s="15" t="s">
+      <c r="D147" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E147" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F146" s="4"/>
-    </row>
-    <row r="147" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="11" t="s">
+      <c r="F147" s="4"/>
+    </row>
+    <row r="148" spans="1:6" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B147" s="16" t="s">
+      <c r="B148" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C147" s="16" t="s">
+      <c r="C148" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D147" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E147" s="16" t="s">
+      <c r="D148" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E148" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F147" s="4"/>
-    </row>
-    <row r="148" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A148" s="13" t="s">
+      <c r="F148" s="4"/>
+    </row>
+    <row r="149" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A149" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B148" s="13" t="s">
+      <c r="B149" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C148" s="13" t="s">
+      <c r="C149" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D148" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E148" s="15" t="s">
+      <c r="D149" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E149" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F148" s="4"/>
-    </row>
-    <row r="149" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A149" s="11" t="s">
+      <c r="F149" s="4"/>
+    </row>
+    <row r="150" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A150" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B150" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="C150" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D149" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E149" s="14" t="s">
+      <c r="D150" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E150" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="F149" s="4"/>
-    </row>
-    <row r="150" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A150" s="13" t="s">
+      <c r="F150" s="4"/>
+    </row>
+    <row r="151" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A151" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B151" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="C151" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D150" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E150" s="15" t="s">
+      <c r="D151" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E151" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="F150" s="4"/>
-    </row>
-    <row r="151" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A151" s="13" t="s">
+      <c r="F151" s="4"/>
+    </row>
+    <row r="152" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A152" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B151" s="12" t="s">
+      <c r="B152" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C151" s="12" t="s">
+      <c r="C152" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D151" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E151" s="15" t="s">
+      <c r="D152" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E152" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="F151" s="4"/>
-    </row>
-    <row r="152" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A152" s="13" t="s">
+      <c r="F152" s="4"/>
+    </row>
+    <row r="153" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A153" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B153" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="C153" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D152" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E152" s="15" t="s">
+      <c r="D153" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E153" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="F152" s="4"/>
-    </row>
-    <row r="153" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A153" s="13" t="s">
+      <c r="F153" s="4"/>
+    </row>
+    <row r="154" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A154" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B153" s="12" t="s">
+      <c r="B154" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="C154" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D153" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E153" s="15" t="s">
+      <c r="D154" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E154" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="F153" s="4"/>
-    </row>
-    <row r="154" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A154" s="13" t="s">
+      <c r="F154" s="4"/>
+    </row>
+    <row r="155" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A155" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B154" s="12" t="s">
+      <c r="B155" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C154" s="12" t="s">
+      <c r="C155" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D154" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E154" s="15" t="s">
+      <c r="D155" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E155" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="F154" s="4"/>
-    </row>
-    <row r="155" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A155" s="13" t="s">
+      <c r="F155" s="4"/>
+    </row>
+    <row r="156" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A156" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B155" s="12" t="s">
+      <c r="B156" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="C156" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D155" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E155" s="15" t="s">
+      <c r="D156" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E156" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F155" s="4"/>
-    </row>
-    <row r="156" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A156" s="13" t="s">
+      <c r="F156" s="4"/>
+    </row>
+    <row r="157" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="B157" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="C157" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D156" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E156" s="15" t="s">
+      <c r="D157" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E157" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F156" s="4"/>
-    </row>
-    <row r="157" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A157" s="11" t="s">
+      <c r="F157" s="4"/>
+    </row>
+    <row r="158" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A158" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B158" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C157" s="12" t="s">
+      <c r="C158" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D157" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E157" s="14" t="s">
+      <c r="D158" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E158" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F157" s="4"/>
-    </row>
-    <row r="158" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A158" s="13" t="s">
+      <c r="F158" s="4"/>
+    </row>
+    <row r="159" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B158" s="17" t="s">
+      <c r="B159" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="C159" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D158" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E158" s="18" t="s">
+      <c r="D159" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E159" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="F158" s="4"/>
-    </row>
-    <row r="159" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A159" s="11" t="s">
+      <c r="F159" s="4"/>
+    </row>
+    <row r="160" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A160" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B159" s="12" t="s">
+      <c r="B160" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C159" s="12" t="s">
+      <c r="C160" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D159" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E159" s="14" t="s">
+      <c r="D160" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E160" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="F159" s="4"/>
-    </row>
-    <row r="160" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A160" s="13" t="s">
+      <c r="F160" s="4"/>
+    </row>
+    <row r="161" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A161" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B160" s="12" t="s">
+      <c r="B161" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="C160" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D160" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E160" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F160" s="4"/>
-    </row>
-    <row r="161" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A161" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B161" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>180</v>
@@ -5886,935 +5935,1222 @@
         <v>44</v>
       </c>
       <c r="E161" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F161" s="4"/>
+    </row>
+    <row r="162" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D162" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E162" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F161" s="4"/>
-    </row>
-    <row r="162" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A162" s="13" t="s">
+      <c r="F162" s="4"/>
+    </row>
+    <row r="163" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A163" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B162" s="12" t="s">
+      <c r="B163" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C162" s="12" t="s">
+      <c r="C163" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D162" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E162" s="12" t="s">
+      <c r="D163" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E163" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="F162" s="4"/>
-    </row>
-    <row r="163" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A163" s="11" t="s">
+      <c r="F163" s="4"/>
+    </row>
+    <row r="164" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A164" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B163" s="12" t="s">
+      <c r="B164" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C163" s="12" t="s">
+      <c r="C164" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D163" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163" s="14" t="s">
+      <c r="D164" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E164" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F163" s="6" t="s">
+      <c r="F164" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A164" s="13" t="s">
+    <row r="165" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A165" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B164" s="12" t="s">
+      <c r="B165" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C164" s="12" t="s">
+      <c r="C165" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="D164" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E164" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F164" s="4"/>
-    </row>
-    <row r="165" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A165" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B165" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="D165" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A166" s="11" t="s">
-        <v>215</v>
+    <row r="166" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A166" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="D166" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E166" s="14" t="s">
+      <c r="E166" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F166" s="4"/>
+    </row>
+    <row r="167" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A167" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D167" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E167" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="F166" s="6" t="s">
+      <c r="F167" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A167" s="13" t="s">
+    <row r="168" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A168" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B167" s="12" t="s">
+      <c r="B168" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C167" s="12" t="s">
+      <c r="C168" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="D167" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E167" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F167" s="4"/>
-    </row>
-    <row r="168" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A168" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B168" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C168" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="D168" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E168" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F168" s="4"/>
+    </row>
+    <row r="169" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A169" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F168" s="4"/>
-    </row>
-    <row r="169" spans="1:7" ht="70.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="11" t="s">
+      <c r="F169" s="4"/>
+    </row>
+    <row r="170" spans="1:6" ht="70.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="B169" s="12" t="s">
+      <c r="B170" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C169" s="12" t="s">
+      <c r="C170" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="D169" s="12" t="s">
+      <c r="D170" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="E169" s="14" t="s">
+      <c r="E170" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="F169" s="6" t="s">
+      <c r="F170" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A170" s="13" t="s">
+    <row r="171" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A171" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B170" s="12" t="s">
+      <c r="B171" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C170" s="12" t="s">
+      <c r="C171" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D170" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E170" s="15" t="s">
+      <c r="D171" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E171" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F170" s="4"/>
-    </row>
-    <row r="171" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A171" s="13" t="s">
+      <c r="F171" s="4"/>
+    </row>
+    <row r="172" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A172" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B171" s="12" t="s">
+      <c r="B172" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C171" s="12" t="s">
+      <c r="C172" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D171" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E171" s="15" t="s">
+      <c r="D172" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E172" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F171" s="4"/>
-    </row>
-    <row r="172" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A172" s="11" t="s">
+      <c r="F172" s="4"/>
+    </row>
+    <row r="173" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A173" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B172" s="12" t="s">
+      <c r="B173" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C172" s="12" t="s">
+      <c r="C173" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D172" s="12" t="s">
+      <c r="D173" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="E172" s="14" t="s">
+      <c r="E173" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="F172" s="6" t="s">
+      <c r="F173" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A173" s="13" t="s">
+    <row r="174" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A174" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B174" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C173" s="12" t="s">
+      <c r="C174" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D173" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E173" s="15" t="s">
+      <c r="D174" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E174" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F173" s="4"/>
-    </row>
-    <row r="174" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A174" s="13" t="s">
+      <c r="F174" s="4"/>
+    </row>
+    <row r="175" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A175" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="B175" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C174" s="12" t="s">
+      <c r="C175" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D174" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E174" s="15" t="s">
+      <c r="D175" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E175" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F174" s="4"/>
-    </row>
-    <row r="175" spans="1:7" ht="107.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="11" t="s">
+      <c r="F175" s="4"/>
+    </row>
+    <row r="176" spans="1:6" ht="107.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B176" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C175" s="12" t="s">
+      <c r="C176" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D175" s="13" t="s">
+      <c r="D176" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="E175" s="14" t="s">
+      <c r="E176" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="F175" s="6" t="s">
+      <c r="F176" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A176" s="13" t="s">
+    <row r="177" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A177" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="B177" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C176" s="12" t="s">
+      <c r="C177" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D176" s="13" t="s">
+      <c r="D177" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E176" s="15" t="s">
+      <c r="E177" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="F176" s="4"/>
-      <c r="G176" t="s">
+      <c r="F177" s="4"/>
+      <c r="G177" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="9" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A177" s="12" t="s">
+    <row r="178" spans="1:7" s="9" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A178" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B177" s="12" t="s">
+      <c r="B178" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C177" s="12" t="s">
+      <c r="C178" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D177" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E177" s="15" t="s">
+      <c r="D178" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E178" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="F177" s="3"/>
-    </row>
-    <row r="178" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A178" s="13" t="s">
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A179" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B178" s="12" t="s">
+      <c r="B179" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="C179" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D178" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E178" s="15" t="s">
+      <c r="D179" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E179" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F178" s="4"/>
-    </row>
-    <row r="179" spans="1:6" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A179" s="12" t="s">
+      <c r="F179" s="4"/>
+    </row>
+    <row r="180" spans="1:7" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A180" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B179" s="12" t="s">
+      <c r="B180" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C179" s="12" t="s">
+      <c r="C180" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="D179" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E179" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="F179" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" s="9" customFormat="1" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B180" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>253</v>
       </c>
       <c r="D180" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E180" s="15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" s="9" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A181" s="19" t="s">
-        <v>256</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="9" customFormat="1" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="12" t="s">
+        <v>251</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D181" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E181" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" s="9" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A182" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="F181" s="8" t="s">
+      <c r="F182" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A182" s="13" t="s">
+    <row r="183" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A183" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B182" s="12" t="s">
+      <c r="B183" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C182" s="12" t="s">
+      <c r="C183" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="D182" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E182" s="15" t="s">
+      <c r="D183" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E183" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="F182" s="4"/>
-    </row>
-    <row r="183" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A183" s="13" t="s">
+      <c r="F183" s="4"/>
+    </row>
+    <row r="184" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A184" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="B183" s="12" t="s">
+      <c r="B184" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="C183" s="12" t="s">
+      <c r="C184" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="D183" s="13" t="s">
+      <c r="D184" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E183" s="15" t="s">
+      <c r="E184" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="F183" s="4"/>
-    </row>
-    <row r="184" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A184" s="11" t="s">
+      <c r="F184" s="4"/>
+    </row>
+    <row r="185" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A185" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="B184" s="12" t="s">
+      <c r="B185" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C184" s="12" t="s">
+      <c r="C185" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D184" s="13" t="s">
+      <c r="D185" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E184" s="14" t="s">
+      <c r="E185" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="F184" s="4"/>
-    </row>
-    <row r="185" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A185" s="13" t="s">
+      <c r="F185" s="4"/>
+    </row>
+    <row r="186" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A186" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B185" s="12" t="s">
+      <c r="B186" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="C185" s="12" t="s">
+      <c r="C186" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D185" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E185" s="15" t="s">
+      <c r="D186" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E186" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="F185" s="4"/>
-    </row>
-    <row r="186" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A186" s="13" t="s">
+      <c r="F186" s="4"/>
+    </row>
+    <row r="187" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A187" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="B186" s="12" t="s">
+      <c r="B187" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="C186" s="12" t="s">
+      <c r="C187" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D186" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E186" s="15" t="s">
+      <c r="D187" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E187" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="F186" s="4"/>
-    </row>
-    <row r="187" spans="1:6" s="28" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A187" s="11" t="s">
+      <c r="F187" s="4"/>
+    </row>
+    <row r="188" spans="1:7" s="28" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A188" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="B187" s="12" t="s">
+      <c r="B188" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="C187" s="12" t="s">
+      <c r="C188" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="D187" s="13" t="s">
+      <c r="D188" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E187" s="14" t="s">
+      <c r="E188" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="F187" s="27"/>
-    </row>
-    <row r="188" spans="1:6" s="28" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A188" s="13" t="s">
+      <c r="F188" s="27"/>
+      <c r="G188" s="30" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" s="28" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A189" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B188" s="12" t="s">
+      <c r="B189" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="C188" s="12" t="s">
+      <c r="C189" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="D188" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E188" s="15" t="s">
+      <c r="D189" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E189" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="F188" s="27"/>
-    </row>
-    <row r="189" spans="1:6" ht="68.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="11" t="s">
+      <c r="F189" s="27"/>
+      <c r="G189" s="28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="B189" s="12" t="s">
+      <c r="B190" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="C189" s="12" t="s">
+      <c r="C190" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="D189" s="13" t="s">
+      <c r="D190" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="E189" s="14" t="s">
+      <c r="E190" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="F189" s="6" t="s">
+      <c r="F190" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A190" s="13" t="s">
+    <row r="191" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A191" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="B190" s="12" t="s">
+      <c r="B191" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="C190" s="12" t="s">
+      <c r="C191" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="D190" s="13" t="s">
+      <c r="D191" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E190" s="15" t="s">
+      <c r="E191" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="F190" s="4"/>
-    </row>
-    <row r="191" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A191" s="13" t="s">
+      <c r="F191" s="4"/>
+    </row>
+    <row r="192" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A192" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B191" s="12" t="s">
+      <c r="B192" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="C191" s="12" t="s">
+      <c r="C192" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="D191" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E191" s="15" t="s">
+      <c r="D192" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E192" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="F191" s="4"/>
-    </row>
-    <row r="192" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A192" s="13" t="s">
+      <c r="F192" s="4"/>
+    </row>
+    <row r="193" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A193" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="B192" s="12" t="s">
+      <c r="B193" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="C192" s="12" t="s">
+      <c r="C193" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="D192" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E192" s="15" t="s">
+      <c r="D193" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E193" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="F192" s="4"/>
-    </row>
-    <row r="193" spans="1:7" ht="66.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="11" t="s">
+      <c r="F193" s="4"/>
+    </row>
+    <row r="194" spans="1:7" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B193" s="12" t="s">
+      <c r="B194" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="C193" s="12" t="s">
+      <c r="C194" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="D193" s="13" t="s">
+      <c r="D194" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E193" s="14" t="s">
+      <c r="E194" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="F193" s="6" t="s">
+      <c r="F194" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="G193" s="9" t="s">
+      <c r="G194" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A194" s="13" t="s">
+    <row r="195" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A195" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="B194" s="12" t="s">
+      <c r="B195" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="C194" s="12" t="s">
+      <c r="C195" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="D194" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E194" s="15" t="s">
+      <c r="D195" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E195" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="F194" s="4"/>
-    </row>
-    <row r="195" spans="1:7" s="28" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A195" s="19" t="s">
+      <c r="F195" s="4"/>
+    </row>
+    <row r="196" spans="1:7" s="28" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A196" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="B195" s="12" t="s">
+      <c r="B196" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="C195" s="12" t="s">
+      <c r="C196" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="D195" s="13" t="s">
+      <c r="D196" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E195" s="14" t="s">
+      <c r="E196" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="F195" s="27"/>
-    </row>
-    <row r="196" spans="1:7" s="28" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A196" s="20" t="s">
+      <c r="F196" s="27"/>
+      <c r="G196" s="28" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="28" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A197" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B196" s="12" t="s">
+      <c r="B197" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="C196" s="12" t="s">
+      <c r="C197" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="D196" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E196" s="15" t="s">
+      <c r="D197" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E197" s="15" t="s">
         <v>361</v>
-      </c>
-      <c r="F196" s="27"/>
-    </row>
-    <row r="197" spans="1:7" s="28" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A197" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="B197" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="C197" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="D197" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E197" s="15" t="s">
-        <v>366</v>
       </c>
       <c r="F197" s="27"/>
       <c r="G197" s="28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A198" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D198" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E198" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="F198" s="27"/>
+      <c r="G198" s="28" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="198" spans="1:7" s="28" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A198" s="19" t="s">
+    <row r="199" spans="1:7" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A199" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="B198" s="12" t="s">
+      <c r="B199" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="C198" s="12" t="s">
+      <c r="C199" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="D198" s="13" t="s">
+      <c r="D199" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E198" s="14" t="s">
+      <c r="E199" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="F198" s="27"/>
-    </row>
-    <row r="199" spans="1:7" s="28" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A199" s="20" t="s">
+      <c r="F199" s="27"/>
+    </row>
+    <row r="200" spans="1:7" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A200" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B199" s="12" t="s">
+      <c r="B200" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="C199" s="12" t="s">
+      <c r="C200" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="D199" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E199" s="15" t="s">
+      <c r="D200" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E200" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="F199" s="27"/>
-    </row>
-    <row r="200" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A200" s="19" t="s">
+      <c r="F200" s="27"/>
+      <c r="G200" s="28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A201" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="B200" s="12" t="s">
+      <c r="B201" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="C200" s="12" t="s">
+      <c r="C201" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="D200" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E200" s="14" t="s">
+      <c r="D201" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E201" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="F200" s="4"/>
-    </row>
-    <row r="201" spans="1:7" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="11" t="s">
+      <c r="F201" s="4"/>
+    </row>
+    <row r="202" spans="1:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="B201" s="12" t="s">
+      <c r="B202" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="C201" s="12" t="s">
+      <c r="C202" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="D201" s="13" t="s">
+      <c r="D202" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="E201" s="14" t="s">
+      <c r="E202" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="F201" s="6" t="s">
+      <c r="F202" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A202" s="13" t="s">
+    <row r="203" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A203" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B202" s="12" t="s">
+      <c r="B203" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="C202" s="12" t="s">
+      <c r="C203" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="D202" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E202" s="15" t="s">
+      <c r="D203" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E203" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="F202" s="4"/>
-    </row>
-    <row r="203" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A203" s="13" t="s">
+      <c r="F203" s="4"/>
+    </row>
+    <row r="204" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A204" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="B203" s="12" t="s">
+      <c r="B204" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="C203" s="12" t="s">
+      <c r="C204" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="D203" s="13" t="s">
+      <c r="D204" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E203" s="15" t="s">
+      <c r="E204" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="F203" s="4"/>
-    </row>
-    <row r="204" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A204" s="13" t="s">
+      <c r="F204" s="4"/>
+    </row>
+    <row r="205" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A205" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B204" s="12" t="s">
+      <c r="B205" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="C204" s="12" t="s">
+      <c r="C205" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="D204" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E204" s="15" t="s">
+      <c r="D205" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E205" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="F204" s="4"/>
-    </row>
-    <row r="205" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A205" s="13" t="s">
+      <c r="F205" s="4"/>
+    </row>
+    <row r="206" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A206" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="B205" s="12" t="s">
+      <c r="B206" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="C205" s="12" t="s">
+      <c r="C206" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="D205" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E205" s="15" t="s">
+      <c r="D206" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E206" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="F205" s="4"/>
-      <c r="G205" s="9" t="s">
+      <c r="F206" s="4"/>
+      <c r="G206" s="9" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A206" s="11" t="s">
+    <row r="207" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A207" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="D207" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E207" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G207" s="9"/>
+    </row>
+    <row r="208" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A208" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="B206" s="12" t="s">
+      <c r="B208" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="C206" s="12" t="s">
+      <c r="C208" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="D206" s="13" t="s">
+      <c r="D208" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E206" s="14" t="s">
+      <c r="E208" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="F206" s="4"/>
-    </row>
-    <row r="207" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A207" s="22" t="s">
+      <c r="F208" s="4"/>
+    </row>
+    <row r="209" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A209" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="B207" s="12" t="s">
+      <c r="B209" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="C207" s="17" t="s">
+      <c r="C209" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D207" s="13" t="s">
+      <c r="D209" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E207" s="15" t="s">
+      <c r="E209" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="F207" s="27"/>
-      <c r="G207" s="9" t="s">
+      <c r="F209" s="27"/>
+      <c r="G209" s="9" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A208" s="19" t="s">
+    <row r="210" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A210" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="B208" s="12" t="s">
+      <c r="B210" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="C208" s="12" t="s">
+      <c r="C210" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="D208" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E208" s="14" t="s">
+      <c r="D210" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E210" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="F208" s="6" t="s">
+      <c r="F210" s="6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A209" s="13" t="s">
+    <row r="211" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A211" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B209" s="12" t="s">
+      <c r="B211" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C209" s="12" t="s">
+      <c r="C211" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D209" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E209" s="15" t="s">
+      <c r="D211" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E211" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F209" s="4"/>
-    </row>
-    <row r="210" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A210" s="13" t="s">
+      <c r="F211" s="4"/>
+    </row>
+    <row r="212" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A212" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="B210" s="12" t="s">
+      <c r="B212" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C210" s="12" t="s">
+      <c r="C212" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D210" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E210" s="15" t="s">
+      <c r="D212" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E212" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F210" s="4"/>
+      <c r="F212" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G210" xr:uid="{9D8CE110-6E39-D64D-8650-568177F5E3DB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C45004379804594DAAC247EF5A11E345" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="38d0cb453a91951e6c1d3f237eda6933">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="96d8967d-2fce-4c28-bf6d-21a9007b572c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b75c4f02bc30abb43f094b731b7c34bf" ns2:_="">
+    <xsd:import namespace="96d8967d-2fce-4c28-bf6d-21a9007b572c"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="96d8967d-2fce-4c28-bf6d-21a9007b572c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93201C4A-D66A-47E1-B257-3F206F46D5A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="96d8967d-2fce-4c28-bf6d-21a9007b572c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CA052FF-9FE8-45F0-9162-066F088E8FC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BBEFB6D-6E41-4340-9426-1CD6A5D00165}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>